--- a/files/amrcloud-antibiotics-classified.xlsx
+++ b/files/amrcloud-antibiotics-classified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UbuntuVM\shared18\amr-cloud-hugo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITLAB\amr-cloud-landing-hugo\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="All_Antibiotics" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Antibiotics!$A$1:$G$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Antibiotics!$A$1:$G$392</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="467">
   <si>
     <t>amikacin_mic</t>
   </si>
@@ -2651,11 +2651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324:XFD326"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,19 +5959,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>423</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>389</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>387</v>
@@ -6028,13 +6028,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>387</v>
@@ -6046,12 +6046,12 @@
         <v>423</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>389</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>386</v>
@@ -6097,13 +6097,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>387</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>389</v>
@@ -6143,10 +6143,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>387</v>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>387</v>
@@ -6181,15 +6181,15 @@
         <v>387</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>389</v>
@@ -6212,10 +6212,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>387</v>
@@ -6235,30 +6235,30 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>389</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>386</v>
@@ -6304,16 +6304,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>387</v>
@@ -6322,12 +6322,12 @@
         <v>404</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>389</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>387</v>
@@ -6373,30 +6373,30 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>356</v>
+        <v>51</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>389</v>
@@ -6419,16 +6419,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>387</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>390</v>
@@ -6451,44 +6451,44 @@
         <v>387</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>389</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>387</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>390</v>
@@ -6549,15 +6549,15 @@
         <v>387</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>390</v>
@@ -6572,38 +6572,38 @@
         <v>387</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>56</v>
+        <v>357</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="G171" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>357</v>
+        <v>58</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>389</v>
@@ -6617,7 +6617,7 @@
       <c r="E172" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" t="s">
         <v>437</v>
       </c>
       <c r="G172" t="s">
@@ -6626,16 +6626,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>387</v>
@@ -6649,30 +6649,30 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F174" t="s">
-        <v>437</v>
-      </c>
-      <c r="G174" t="s">
-        <v>437</v>
+        <v>386</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>390</v>
@@ -6687,38 +6687,38 @@
         <v>386</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>389</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>386</v>
@@ -6764,30 +6764,30 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>389</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>387</v>
@@ -6833,30 +6833,30 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>389</v>
@@ -6879,16 +6879,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>387</v>
@@ -6902,30 +6902,30 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>389</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>386</v>
@@ -6971,19 +6971,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>386</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>404</v>
@@ -6994,30 +6994,30 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>389</v>
@@ -7040,13 +7040,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>387</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>387</v>
@@ -7075,18 +7075,18 @@
         <v>387</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>389</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>387</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>387</v>
@@ -7147,15 +7147,15 @@
         <v>387</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>389</v>
@@ -7178,10 +7178,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>387</v>
@@ -7201,30 +7201,30 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>361</v>
+        <v>244</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>389</v>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>386</v>
@@ -7270,30 +7270,30 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>386</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>390</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>390</v>
@@ -7331,50 +7331,50 @@
         <v>386</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>442</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>389</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>387</v>
@@ -7431,10 +7431,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>387</v>
@@ -7443,18 +7443,18 @@
         <v>387</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>389</v>
@@ -7477,10 +7477,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>387</v>
@@ -7500,30 +7500,30 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>73</v>
+        <v>362</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>389</v>
@@ -7546,13 +7546,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>386</v>
@@ -7569,13 +7569,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>386</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>389</v>
@@ -7615,13 +7615,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>386</v>
@@ -7638,30 +7638,30 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>389</v>
@@ -7673,7 +7673,7 @@
         <v>387</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>403</v>
@@ -7684,19 +7684,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>403</v>
@@ -7707,16 +7707,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>387</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>387</v>
@@ -7753,30 +7753,30 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>389</v>
@@ -7799,10 +7799,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>386</v>
@@ -7822,30 +7822,30 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>389</v>
@@ -7868,10 +7868,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>387</v>
@@ -7891,13 +7891,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>387</v>
@@ -7906,15 +7906,15 @@
         <v>387</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>389</v>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>386</v>
@@ -7960,10 +7960,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>386</v>
@@ -7975,15 +7975,15 @@
         <v>387</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>389</v>
@@ -8006,13 +8006,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>387</v>
@@ -8029,30 +8029,30 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>389</v>
@@ -8061,10 +8061,10 @@
         <v>386</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>445</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>389</v>
@@ -8087,7 +8087,7 @@
         <v>387</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>445</v>
@@ -8098,10 +8098,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>386</v>
@@ -8121,13 +8121,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>387</v>
@@ -8136,15 +8136,15 @@
         <v>387</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>389</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>387</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>390</v>
@@ -8199,56 +8199,56 @@
         <v>387</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
+      </c>
+      <c r="G242" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>446</v>
@@ -8259,16 +8259,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>366</v>
+        <v>89</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>387</v>
@@ -8282,10 +8282,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>387</v>
@@ -8305,30 +8305,30 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G246" t="s">
-        <v>446</v>
+        <v>404</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>367</v>
+        <v>216</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>389</v>
@@ -8351,10 +8351,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>386</v>
@@ -8374,10 +8374,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>215</v>
+        <v>368</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>386</v>
@@ -8389,15 +8389,15 @@
         <v>387</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>389</v>
@@ -8420,10 +8420,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>386</v>
@@ -8443,30 +8443,30 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>389</v>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>387</v>
@@ -8512,30 +8512,30 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>389</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>386</v>
@@ -8581,19 +8581,19 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>439</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>389</v>
@@ -8627,10 +8627,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>387</v>
@@ -8650,30 +8650,30 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>369</v>
+        <v>192</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>389</v>
@@ -8696,16 +8696,16 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>387</v>
@@ -8719,13 +8719,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>387</v>
@@ -8734,18 +8734,18 @@
         <v>387</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>387</v>
@@ -8757,15 +8757,15 @@
         <v>387</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>312</v>
+        <v>94</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>389</v>
@@ -8788,10 +8788,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>387</v>
@@ -8811,30 +8811,30 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>389</v>
@@ -8857,10 +8857,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>386</v>
@@ -8880,30 +8880,30 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>389</v>
@@ -8926,10 +8926,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>387</v>
@@ -8949,30 +8949,30 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>389</v>
@@ -8995,10 +8995,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>387</v>
@@ -9018,30 +9018,30 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>389</v>
@@ -9064,10 +9064,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>387</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>390</v>
@@ -9096,24 +9096,24 @@
         <v>387</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>405</v>
+        <v>451</v>
+      </c>
+      <c r="G280" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>101</v>
+        <v>384</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>387</v>
@@ -9125,15 +9125,15 @@
         <v>386</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G281" t="s">
-        <v>452</v>
+        <v>403</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>389</v>
@@ -9156,10 +9156,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>387</v>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>102</v>
+        <v>385</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>387</v>
@@ -9202,19 +9202,19 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>386</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F285" s="7" t="s">
         <v>403</v>
@@ -9225,13 +9225,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>386</v>
@@ -9248,10 +9248,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>387</v>
@@ -9271,42 +9271,42 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F289" s="7" t="s">
         <v>453</v>
@@ -9317,16 +9317,16 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>387</v>
@@ -9340,10 +9340,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>387</v>
@@ -9363,10 +9363,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>387</v>
@@ -9375,18 +9375,18 @@
         <v>387</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G292" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="G292" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>389</v>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>387</v>
@@ -9432,10 +9432,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>387</v>
@@ -9444,18 +9444,18 @@
         <v>387</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G295" t="s">
-        <v>454</v>
+        <v>404</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>389</v>
@@ -9478,10 +9478,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>387</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>390</v>
@@ -9510,44 +9510,44 @@
         <v>387</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>389</v>
@@ -9570,10 +9570,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>387</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>390</v>
@@ -9608,18 +9608,18 @@
         <v>387</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G302" s="7" t="s">
-        <v>406</v>
+        <v>436</v>
+      </c>
+      <c r="G302" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>387</v>
@@ -9631,15 +9631,15 @@
         <v>387</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G303" t="s">
-        <v>436</v>
+        <v>410</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>389</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>387</v>
@@ -9685,10 +9685,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>387</v>
@@ -9700,15 +9700,15 @@
         <v>387</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>320</v>
+        <v>176</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>389</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>387</v>
@@ -9754,33 +9754,33 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>386</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>389</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>386</v>
@@ -9846,7 +9846,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>390</v>
@@ -9869,13 +9869,13 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>386</v>
@@ -9892,13 +9892,13 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>386</v>
@@ -9910,12 +9910,12 @@
         <v>410</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>389</v>
@@ -9924,10 +9924,10 @@
         <v>386</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F316" s="7" t="s">
         <v>410</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>389</v>
@@ -9950,7 +9950,7 @@
         <v>387</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F317" s="7" t="s">
         <v>410</v>
@@ -9961,13 +9961,13 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>387</v>
@@ -9984,42 +9984,42 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F320" s="7" t="s">
         <v>411</v>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>389</v>
@@ -10042,7 +10042,7 @@
         <v>387</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F321" s="7" t="s">
         <v>411</v>
@@ -10053,10 +10053,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>387</v>
@@ -10076,53 +10076,53 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E323" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>389</v>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>387</v>
@@ -10168,7 +10168,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>390</v>
@@ -10177,44 +10177,44 @@
         <v>387</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F328" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>324</v>
+        <v>121</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>389</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>387</v>
@@ -10260,53 +10260,53 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>196</v>
+        <v>375</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>389</v>
@@ -10329,13 +10329,13 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>386</v>
@@ -10352,13 +10352,13 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>386</v>
@@ -10367,15 +10367,15 @@
         <v>387</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>389</v>
@@ -10398,16 +10398,16 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>387</v>
@@ -10421,30 +10421,30 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>124</v>
+        <v>377</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E338" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>389</v>
@@ -10453,7 +10453,7 @@
         <v>386</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>387</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>389</v>
@@ -10490,13 +10490,13 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>387</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>390</v>
@@ -10522,27 +10522,27 @@
         <v>387</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F342" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>128</v>
+        <v>398</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>386</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>398</v>
+        <v>218</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>389</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>386</v>
@@ -10605,10 +10605,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>217</v>
+        <v>378</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>386</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>389</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>386</v>
@@ -10674,30 +10674,30 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F349" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G349" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
+      </c>
+      <c r="G349" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>389</v>
@@ -10720,19 +10720,19 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F351" s="7" t="s">
         <v>446</v>
@@ -10743,10 +10743,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>387</v>
@@ -10757,16 +10757,16 @@
       <c r="E352" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F352" s="7" t="s">
-        <v>446</v>
+      <c r="F352" t="s">
+        <v>455</v>
       </c>
       <c r="G352" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>389</v>
@@ -10789,10 +10789,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>387</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>390</v>
@@ -10826,19 +10826,19 @@
       <c r="E355" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F355" t="s">
-        <v>455</v>
-      </c>
-      <c r="G355" t="s">
-        <v>455</v>
+      <c r="F355" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G355" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>387</v>
@@ -10847,18 +10847,18 @@
         <v>387</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F356" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>389</v>
@@ -10881,10 +10881,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>387</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>387</v>
@@ -10919,15 +10919,15 @@
         <v>386</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>389</v>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>387</v>
@@ -10973,10 +10973,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>387</v>
@@ -10985,18 +10985,18 @@
         <v>387</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F362" s="7" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>389</v>
@@ -11019,10 +11019,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>387</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>390</v>
@@ -11051,44 +11051,44 @@
         <v>387</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E366" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>389</v>
@@ -11111,10 +11111,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>386</v>
@@ -11134,30 +11134,30 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>332</v>
+        <v>142</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>389</v>
@@ -11180,10 +11180,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>387</v>
@@ -11203,10 +11203,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>387</v>
@@ -11215,18 +11215,18 @@
         <v>387</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>389</v>
@@ -11249,10 +11249,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>387</v>
@@ -11272,10 +11272,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>387</v>
@@ -11284,18 +11284,18 @@
         <v>387</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>389</v>
@@ -11318,10 +11318,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>387</v>
@@ -11341,10 +11341,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>387</v>
@@ -11356,15 +11356,15 @@
         <v>387</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>389</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>387</v>
@@ -11410,10 +11410,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
-        <v>147</v>
+        <v>336</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>387</v>
@@ -11425,15 +11425,15 @@
         <v>387</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>389</v>
@@ -11456,10 +11456,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>387</v>
@@ -11479,30 +11479,30 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F384" s="7" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="G384" s="7" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>389</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>386</v>
@@ -11548,65 +11548,65 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>386</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G387" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
+      </c>
+      <c r="G387" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>386</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G388" t="s">
-        <v>418</v>
+        <v>455</v>
+      </c>
+      <c r="G388" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F389" s="7" t="s">
         <v>455</v>
@@ -11617,7 +11617,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>389</v>
@@ -11629,7 +11629,7 @@
         <v>387</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F390" s="7" t="s">
         <v>455</v>
@@ -11640,10 +11640,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>387</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>390</v>
@@ -11672,43 +11672,20 @@
         <v>387</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D393" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E393" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F393" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G393" s="7" t="s">
-        <v>456</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G393"/>
+  <autoFilter ref="A1:G392"/>
   <sortState ref="A2:A395">
     <sortCondition ref="A2"/>
   </sortState>
@@ -11732,11 +11709,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2 F154:F162 F166 F175 G5:G9 C2:E393</xm:sqref>
+          <xm:sqref>F2 F153:F161 F165 F174 G5:G9 C2:E392</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{3EE920EF-BF00-45A0-A3A6-2FC9B8BFC594}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G154)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G153)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11749,7 +11726,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G154:G162 G166 G175</xm:sqref>
+          <xm:sqref>G153:G161 G165 G174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{E8C82459-C8E5-4D19-8E2D-F22E003BBDE7}">
@@ -11838,7 +11815,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{BCE90EDF-C089-4CC4-B6D9-E47D9100FCBB}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F186)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F185)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11851,11 +11828,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F186:F189 F199:F201</xm:sqref>
+          <xm:sqref>F185:F188 F198:F200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{873AF426-12CD-4D75-92E8-A64956DBE105}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G186)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G185)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11868,11 +11845,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G186:G189 G199:G201</xm:sqref>
+          <xm:sqref>G185:G188 G198:G200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="33" operator="containsText" id="{9E7A2F9A-1F80-4C73-8014-E4C8FA583AA4}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F212)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F211)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11885,11 +11862,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F212:F217 F223:F225 F239:F241 F247:F249</xm:sqref>
+          <xm:sqref>F211:F216 F222:F224 F238:F240 F246:F248</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="32" operator="containsText" id="{A1724349-CDAA-4EDE-9FCA-D24C2EF17F1E}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G212)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G211)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11902,11 +11879,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G223:G225 G239:G241 G247:G249 G212:G217</xm:sqref>
+          <xm:sqref>G222:G224 G238:G240 G246:G248 G211:G216</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{030C21E6-0CDC-4341-82B5-960F7EE88EE7}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F272)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F271)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11919,11 +11896,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F272:F274</xm:sqref>
+          <xm:sqref>F271:F273</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="30" operator="containsText" id="{54EA218B-C8DD-4801-85F8-549F7A539DEC}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G272)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G271)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11936,11 +11913,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G272:G274</xm:sqref>
+          <xm:sqref>G271:G273</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="29" operator="containsText" id="{6D2E1AEF-F5CB-4942-96DE-8D698749424C}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F296)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F295)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11953,11 +11930,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F307:F309 F300:F302 F296:F298</xm:sqref>
+          <xm:sqref>F306:F308 F299:F301 F295:F297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="28" operator="containsText" id="{71CAB21B-B7E0-4C35-AB1D-CCE4D3540D64}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G296)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G295)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11970,11 +11947,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G307:G309 G300:G302 G296:G298</xm:sqref>
+          <xm:sqref>G306:G308 G299:G301 G295:G297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="27" operator="containsText" id="{0A7EFE86-0FEA-45F7-81E6-355C5684D3D8}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F333)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F332)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -11987,11 +11964,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F333:F335</xm:sqref>
+          <xm:sqref>F332:F334</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="26" operator="containsText" id="{733CB867-14C1-42D0-9951-E3D00BB29DAC}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G333)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G332)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12004,11 +11981,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G333:G335</xm:sqref>
+          <xm:sqref>G332:G334</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="25" operator="containsText" id="{593D6B57-D6B4-4422-8230-139E0C6E0B8A}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F385)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F384)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12021,11 +11998,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F385:F387</xm:sqref>
+          <xm:sqref>F384:F386</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{EB82EF03-80D3-406D-8D2F-698780D2D7AD}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G385)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G384)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12038,7 +12015,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G385:G387</xm:sqref>
+          <xm:sqref>G384:G386</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{CE38635B-D415-430F-841F-51EFFB7E69ED}">
@@ -12123,7 +12100,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F43:F47 F253:F255 F304:F306 F310:F319</xm:sqref>
+          <xm:sqref>F43:F47 F252:F254 F303:F305 F309:F318</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="18" operator="containsText" id="{18391D20-4F9C-45F1-9310-71883C3E47A6}">
@@ -12140,11 +12117,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G29:G33 G43:G47 G253:G255 G304:G306 G310:G319</xm:sqref>
+          <xm:sqref>G29:G33 G43:G47 G252:G254 G303:G305 G309:G318</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{C90E59B5-E9B3-48B0-BD71-7A3BD5AB0335}">
-            <xm:f>NOT(ISERROR(SEARCH("+",F360)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",F359)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12157,11 +12134,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F360:F362 F367:F369</xm:sqref>
+          <xm:sqref>F359:F361 F366:F368</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{45E45BDA-1193-44AF-A8EA-48BB8224E069}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G320)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G319)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12174,7 +12151,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G320:G323</xm:sqref>
+          <xm:sqref>G319:G322</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{8D0CDA2B-5A1B-42E4-802C-60595FA9A262}">
@@ -12195,7 +12172,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" id="{4A6E83F8-A446-4972-86D1-7F26A56C290D}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G370)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G369)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12208,11 +12185,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G370:G372</xm:sqref>
+          <xm:sqref>G369:G371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{E19DD021-C4F2-496A-9A1B-5715C2D526E4}">
-            <xm:f>NOT(ISERROR(SEARCH("+",G360)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("+",G359)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -12225,7 +12202,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G360:G362 G367:G369</xm:sqref>
+          <xm:sqref>G359:G361 G366:G368</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{7FCA5574-1564-4C82-B9B8-3188DB857734}">
@@ -12259,7 +12236,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10:F23 F29:F33 F320:F323 F370:F372</xm:sqref>
+          <xm:sqref>F10:F23 F29:F33 F319:F322 F369:F371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{8DF297F1-FEBD-4EF2-8E03-23B8F14E0B1C}">
